--- a/flask_servers/final_vus.xlsx
+++ b/flask_servers/final_vus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q465"/>
+  <dimension ref="A1:R465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>Clinvar canonical spdi</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Clinvar uid</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +585,7 @@
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -653,6 +659,11 @@
           <t>NC_000001.11:3411590:C:T</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2140241</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -724,6 +735,11 @@
       <c r="Q4" t="inlineStr">
         <is>
           <t>NC_000001.11:3425737:G:A</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>644110</t>
         </is>
       </c>
     </row>
@@ -787,6 +803,7 @@
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -860,6 +877,11 @@
           <t>NC_000001.11:25557258:C:T</t>
         </is>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>296979</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -937,6 +959,11 @@
           <t>NC_000001.11:25563140:TC:CG</t>
         </is>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>843164</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1010,6 +1037,11 @@
           <t>NC_000001.11:25805152:G:A</t>
         </is>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>212148</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1083,6 +1115,11 @@
           <t>NC_000001.11:25813888:C:T</t>
         </is>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1415561</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1154,6 +1191,11 @@
       <c r="Q10" t="inlineStr">
         <is>
           <t>NC_000001.11:26058481:G:A</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>222849</t>
         </is>
       </c>
     </row>
@@ -1217,6 +1259,7 @@
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1278,6 +1321,7 @@
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1343,6 +1387,7 @@
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1408,6 +1453,7 @@
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1469,6 +1515,7 @@
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1530,6 +1577,7 @@
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1591,6 +1639,7 @@
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1662,6 +1711,11 @@
       <c r="Q18" t="inlineStr">
         <is>
           <t>NC_000001.11:55058627:G:T</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>922136</t>
         </is>
       </c>
     </row>
@@ -1729,6 +1783,7 @@
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1794,6 +1849,7 @@
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1865,6 +1921,11 @@
       <c r="Q21" t="inlineStr">
         <is>
           <t>NC_000001.11:77936021:G:A</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>838951</t>
         </is>
       </c>
     </row>
@@ -1932,6 +1993,7 @@
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2005,6 +2067,11 @@
           <t>NC_000001.11:111780712:G:A</t>
         </is>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>192253</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2076,6 +2143,11 @@
       <c r="Q24" t="inlineStr">
         <is>
           <t>NC_000001.11:114709606:C:T</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>1708361</t>
         </is>
       </c>
     </row>
@@ -2139,6 +2211,7 @@
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2200,6 +2273,7 @@
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2273,6 +2347,11 @@
           <t>NC_000001.11:156137678:G:A</t>
         </is>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>163878</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2346,6 +2425,11 @@
           <t>NC_000001.11:201359617:C:G</t>
         </is>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>488163</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2419,6 +2503,11 @@
           <t>NC_000001.11:201362015:G:A</t>
         </is>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>181625</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2490,6 +2579,11 @@
       <c r="Q30" t="inlineStr">
         <is>
           <t>NC_000001.11:201364325:C:T</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>404394</t>
         </is>
       </c>
     </row>
@@ -2553,6 +2647,7 @@
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2614,6 +2709,7 @@
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2675,6 +2771,7 @@
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2746,6 +2843,11 @@
       <c r="Q34" t="inlineStr">
         <is>
           <t>NC_000001.11:236720182:C:T</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>626618</t>
         </is>
       </c>
     </row>
@@ -2809,6 +2911,7 @@
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2882,6 +2985,11 @@
           <t>NC_000001.11:236762535:G:A</t>
         </is>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>228435</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2959,6 +3067,11 @@
           <t>NC_000001.11:237496754:AC:ACAC</t>
         </is>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>180487</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3030,6 +3143,11 @@
       <c r="Q38" t="inlineStr">
         <is>
           <t>NC_000001.11:237569204:G:A</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>463596</t>
         </is>
       </c>
     </row>
@@ -3093,6 +3211,7 @@
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3166,6 +3285,11 @@
           <t>NC_000001.11:237756299:G:C</t>
         </is>
       </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>923472</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3237,6 +3361,11 @@
       <c r="Q41" t="inlineStr">
         <is>
           <t>NC_000002.12:21007410:A:G</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>927742</t>
         </is>
       </c>
     </row>
@@ -3304,6 +3433,7 @@
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3365,6 +3495,7 @@
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3438,6 +3569,11 @@
           <t>NC_000002.12:21023016:G:C</t>
         </is>
       </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>928353</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3511,6 +3647,11 @@
           <t>NC_000002.12:21025110:C:T</t>
         </is>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>630345</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3582,6 +3723,11 @@
       <c r="Q46" t="inlineStr">
         <is>
           <t>NC_000002.12:26195183:C:G</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>100085</t>
         </is>
       </c>
     </row>
@@ -3645,6 +3791,7 @@
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3716,6 +3863,11 @@
       <c r="Q48" t="inlineStr">
         <is>
           <t>NC_000002.12:26244596:C:A</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>92593</t>
         </is>
       </c>
     </row>
@@ -3779,6 +3931,7 @@
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3850,6 +4003,11 @@
       <c r="Q50" t="inlineStr">
         <is>
           <t>NC_000002.12:39051252:A:G</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>496312</t>
         </is>
       </c>
     </row>
@@ -3913,6 +4071,7 @@
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3984,6 +4143,11 @@
       <c r="Q52" t="inlineStr">
         <is>
           <t>NC_000002.12:43832055:G:C</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>289815</t>
         </is>
       </c>
     </row>
@@ -4047,6 +4211,7 @@
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4108,6 +4273,7 @@
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4169,6 +4335,7 @@
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4230,6 +4397,7 @@
         </is>
       </c>
       <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4295,6 +4463,7 @@
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4356,6 +4525,7 @@
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4427,6 +4597,11 @@
       <c r="Q59" t="inlineStr">
         <is>
           <t>NC_000002.12:73449401:G:A</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>1797125</t>
         </is>
       </c>
     </row>
@@ -4490,6 +4665,7 @@
         </is>
       </c>
       <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4561,6 +4737,11 @@
       <c r="Q61" t="inlineStr">
         <is>
           <t>NC_000002.12:73449938:A:G</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>529375</t>
         </is>
       </c>
     </row>
@@ -4624,6 +4805,7 @@
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4685,6 +4867,7 @@
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4746,6 +4929,7 @@
         </is>
       </c>
       <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4819,6 +5003,11 @@
           <t>NC_000002.12:73490369:G:A</t>
         </is>
       </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>393018</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4892,6 +5081,11 @@
           <t>NC_000002.12:73491103:A:G</t>
         </is>
       </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>581363</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4965,6 +5159,11 @@
           <t>NC_000002.12:73601274:A:G</t>
         </is>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>581362</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5038,6 +5237,11 @@
           <t>NC_000002.12:73601325:C:T</t>
         </is>
       </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>391899</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5111,6 +5315,11 @@
           <t>NC_000002.12:105373608:G:A</t>
         </is>
       </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>1007875</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5184,6 +5393,11 @@
           <t>NC_000002.12:178531240:G:A</t>
         </is>
       </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>282416</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5255,6 +5469,11 @@
       <c r="Q71" t="inlineStr">
         <is>
           <t>NC_000002.12:178531576:C:T</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>954613</t>
         </is>
       </c>
     </row>
@@ -5318,6 +5537,7 @@
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5391,6 +5611,11 @@
           <t>NC_000002.12:178534210:A:G</t>
         </is>
       </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>838400</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5462,6 +5687,11 @@
       <c r="Q74" t="inlineStr">
         <is>
           <t>NC_000002.12:178535015:G:C</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>466696</t>
         </is>
       </c>
     </row>
@@ -5525,6 +5755,7 @@
         </is>
       </c>
       <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5596,6 +5827,11 @@
       <c r="Q76" t="inlineStr">
         <is>
           <t>NC_000002.12:178535635:T:A</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>626643</t>
         </is>
       </c>
     </row>
@@ -5659,6 +5895,7 @@
         </is>
       </c>
       <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5732,6 +5969,11 @@
           <t>NC_000002.12:178538794:T:A</t>
         </is>
       </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>208622</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5805,6 +6047,11 @@
           <t>NC_000002.12:178539633:G:A</t>
         </is>
       </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>510946</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5876,6 +6123,11 @@
       <c r="Q80" t="inlineStr">
         <is>
           <t>NC_000002.12:178541316:C:G</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>47589</t>
         </is>
       </c>
     </row>
@@ -5939,6 +6191,7 @@
         </is>
       </c>
       <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6012,6 +6265,11 @@
           <t>NC_000002.12:178543380:G:C</t>
         </is>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>332718</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6085,6 +6343,11 @@
           <t>NC_000002.12:178551895:T:C</t>
         </is>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>626647</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6158,6 +6421,11 @@
           <t>NC_000002.12:178553133:C:G</t>
         </is>
       </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>47492</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6231,6 +6499,11 @@
           <t>NC_000002.12:178554092:C:A</t>
         </is>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>467615</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6304,6 +6577,11 @@
           <t>NC_000002.12:178554661:C:T</t>
         </is>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>196150</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6377,6 +6655,11 @@
           <t>NC_000002.12:178557986:T:G</t>
         </is>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>47463</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6450,6 +6733,11 @@
           <t>NC_000002.12:178559660:G:A</t>
         </is>
       </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>47454</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6521,6 +6809,11 @@
       <c r="Q89" t="inlineStr">
         <is>
           <t>NC_000002.12:178561868:C:G</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>263759</t>
         </is>
       </c>
     </row>
@@ -6584,6 +6877,7 @@
         </is>
       </c>
       <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6655,6 +6949,11 @@
       <c r="Q91" t="inlineStr">
         <is>
           <t>NC_000002.12:178564232:C:T</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>47404</t>
         </is>
       </c>
     </row>
@@ -6722,6 +7021,7 @@
         </is>
       </c>
       <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6795,6 +7095,11 @@
           <t>NC_000002.12:178566837:G:A</t>
         </is>
       </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>466659</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6868,6 +7173,11 @@
           <t>NC_000002.12:178566969:C:A</t>
         </is>
       </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>196081</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6941,6 +7251,11 @@
           <t>NC_000002.12:178567718:G:T</t>
         </is>
       </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>535178</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7014,6 +7329,11 @@
           <t>NC_000002.12:178568415:C:T</t>
         </is>
       </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>130680</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7085,6 +7405,11 @@
       <c r="Q97" t="inlineStr">
         <is>
           <t>NC_000002.12:178570592:C:A</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>626416</t>
         </is>
       </c>
     </row>
@@ -7148,6 +7473,7 @@
         </is>
       </c>
       <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7219,6 +7545,11 @@
       <c r="Q99" t="inlineStr">
         <is>
           <t>NC_000002.12:178580187:A:G</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>47248</t>
         </is>
       </c>
     </row>
@@ -7282,6 +7613,7 @@
         </is>
       </c>
       <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7343,6 +7675,7 @@
         </is>
       </c>
       <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -7414,6 +7747,11 @@
       <c r="Q102" t="inlineStr">
         <is>
           <t>NC_000002.12:178581653:C:T</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>47236</t>
         </is>
       </c>
     </row>
@@ -7477,6 +7815,7 @@
         </is>
       </c>
       <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7538,6 +7877,7 @@
         </is>
       </c>
       <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7609,6 +7949,11 @@
       <c r="Q105" t="inlineStr">
         <is>
           <t>NC_000002.12:178587667:T:G</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>202778</t>
         </is>
       </c>
     </row>
@@ -7672,6 +8017,7 @@
         </is>
       </c>
       <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -7733,6 +8079,7 @@
         </is>
       </c>
       <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -7806,6 +8153,11 @@
           <t>NC_000002.12:178600978:A:T</t>
         </is>
       </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>177978</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -7877,6 +8229,11 @@
       <c r="Q109" t="inlineStr">
         <is>
           <t>NC_000002.12:178602131:A:G</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>47101</t>
         </is>
       </c>
     </row>
@@ -7940,6 +8297,7 @@
         </is>
       </c>
       <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -8011,6 +8369,11 @@
       <c r="Q111" t="inlineStr">
         <is>
           <t>NC_000002.12:178620029:C:T</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>47000</t>
         </is>
       </c>
     </row>
@@ -8078,6 +8441,7 @@
         </is>
       </c>
       <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -8151,6 +8515,11 @@
           <t>NC_000002.12:178621101:C:A</t>
         </is>
       </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -8224,6 +8593,11 @@
           <t>NC_000002.12:178624545:G:A</t>
         </is>
       </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>229438</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -8295,6 +8669,11 @@
       <c r="Q115" t="inlineStr">
         <is>
           <t>NC_000002.12:178632145:C:A</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>202365</t>
         </is>
       </c>
     </row>
@@ -8358,6 +8737,7 @@
         </is>
       </c>
       <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -8429,6 +8809,11 @@
       <c r="Q117" t="inlineStr">
         <is>
           <t>NC_000002.12:178652469:T:G</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>202600</t>
         </is>
       </c>
     </row>
@@ -8492,6 +8877,7 @@
         </is>
       </c>
       <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -8553,6 +8939,7 @@
         </is>
       </c>
       <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -8626,6 +9013,11 @@
           <t>NC_000002.12:178684012:T:G</t>
         </is>
       </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>238743</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -8699,6 +9091,11 @@
           <t>NC_000002.12:178704141:C:T</t>
         </is>
       </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>664323</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -8772,6 +9169,11 @@
           <t>NC_000002.12:178714129:G:A</t>
         </is>
       </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>46782</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -8843,6 +9245,11 @@
       <c r="Q123" t="inlineStr">
         <is>
           <t>NC_000002.12:178725405:C:G</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>46675</t>
         </is>
       </c>
     </row>
@@ -8906,6 +9313,7 @@
         </is>
       </c>
       <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -8977,6 +9385,11 @@
       <c r="Q125" t="inlineStr">
         <is>
           <t>NC_000002.12:178739856:A:G</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>229595</t>
         </is>
       </c>
     </row>
@@ -9040,6 +9453,7 @@
         </is>
       </c>
       <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -9111,6 +9525,11 @@
       <c r="Q127" t="inlineStr">
         <is>
           <t>NC_000002.12:178741258:C:T</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>593018</t>
         </is>
       </c>
     </row>
@@ -9174,6 +9593,7 @@
         </is>
       </c>
       <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -9235,6 +9655,7 @@
         </is>
       </c>
       <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -9296,6 +9717,7 @@
         </is>
       </c>
       <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -9369,6 +9791,11 @@
           <t>NC_000002.12:178784158:C:T</t>
         </is>
       </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>46839</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -9440,6 +9867,11 @@
       <c r="Q132" t="inlineStr">
         <is>
           <t>NC_000002.12:178784233:C:A</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>283320</t>
         </is>
       </c>
     </row>
@@ -9503,6 +9935,7 @@
         </is>
       </c>
       <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -9574,6 +10007,11 @@
       <c r="Q134" t="inlineStr">
         <is>
           <t>NC_000002.12:189036638:G:T</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>420270</t>
         </is>
       </c>
     </row>
@@ -9641,6 +10079,7 @@
         </is>
       </c>
       <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -9714,6 +10153,11 @@
           <t>NC_000002.12:219420150:G:A</t>
         </is>
       </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>178015</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -9785,6 +10229,11 @@
       <c r="Q137" t="inlineStr">
         <is>
           <t>NC_000002.12:219421363:C:T</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>44244</t>
         </is>
       </c>
     </row>
@@ -9848,6 +10297,7 @@
         </is>
       </c>
       <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -9919,6 +10369,11 @@
       <c r="Q139" t="inlineStr">
         <is>
           <t>NC_000003.12:8745853:G:A</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>96240</t>
         </is>
       </c>
     </row>
@@ -9982,6 +10437,7 @@
         </is>
       </c>
       <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -10043,6 +10499,7 @@
         </is>
       </c>
       <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -10114,6 +10571,11 @@
       <c r="Q142" t="inlineStr">
         <is>
           <t>NC_000003.12:14135169:C:G</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>1026428</t>
         </is>
       </c>
     </row>
@@ -10177,6 +10639,7 @@
         </is>
       </c>
       <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -10238,6 +10701,7 @@
         </is>
       </c>
       <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -10311,6 +10775,11 @@
           <t>NC_000003.12:38550361:A:T</t>
         </is>
       </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>928274</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -10384,6 +10853,11 @@
           <t>NC_000003.12:38550997:C:T</t>
         </is>
       </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>178858</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -10455,6 +10929,11 @@
       <c r="Q147" t="inlineStr">
         <is>
           <t>NC_000003.12:38555662:C:T</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>643516</t>
         </is>
       </c>
     </row>
@@ -10518,6 +10997,7 @@
         </is>
       </c>
       <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -10591,6 +11071,11 @@
           <t>NC_000003.12:38581001:C:T</t>
         </is>
       </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>9400</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -10664,6 +11149,11 @@
           <t>NC_000003.12:38597916:G:T</t>
         </is>
       </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>67712</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -10735,6 +11225,11 @@
       <c r="Q151" t="inlineStr">
         <is>
           <t>NC_000003.12:38604880:C:T</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>463298</t>
         </is>
       </c>
     </row>
@@ -10798,6 +11293,7 @@
         </is>
       </c>
       <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -10871,6 +11367,11 @@
           <t>NC_000003.12:38622400:C:G</t>
         </is>
       </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>67928</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -10944,6 +11445,11 @@
           <t>NC_000003.12:38633255:G:A</t>
         </is>
       </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>67978</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -11015,6 +11521,11 @@
       <c r="Q155" t="inlineStr">
         <is>
           <t>NC_000003.12:38771278:G:A</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>565891</t>
         </is>
       </c>
     </row>
@@ -11078,6 +11589,7 @@
         </is>
       </c>
       <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -11139,6 +11651,7 @@
         </is>
       </c>
       <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -11200,6 +11713,7 @@
         </is>
       </c>
       <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -11261,6 +11775,7 @@
         </is>
       </c>
       <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -11334,6 +11849,11 @@
           <t>NC_000003.12:123614262:C:T</t>
         </is>
       </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>582011</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -11407,6 +11927,11 @@
           <t>NC_000003.12:123640509:G:A</t>
         </is>
       </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>227625</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -11480,6 +12005,11 @@
           <t>NC_000003.12:123708880:C:T</t>
         </is>
       </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>520001</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -11557,6 +12087,11 @@
           <t>NC_000003.12:123733055:GGTGCCTTC:AGA</t>
         </is>
       </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>409707</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -11628,6 +12163,11 @@
       <c r="Q164" t="inlineStr">
         <is>
           <t>NC_000003.12:123752515:T:C</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>342908</t>
         </is>
       </c>
     </row>
@@ -11691,6 +12231,7 @@
         </is>
       </c>
       <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -11752,6 +12293,7 @@
         </is>
       </c>
       <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -11813,6 +12355,7 @@
         </is>
       </c>
       <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -11886,6 +12429,11 @@
           <t>NC_000004.12:113335980:G:A</t>
         </is>
       </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>1505688</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -11957,6 +12505,11 @@
       <c r="Q169" t="inlineStr">
         <is>
           <t>NC_000004.12:113348276:A:G</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>18056</t>
         </is>
       </c>
     </row>
@@ -12020,6 +12573,7 @@
         </is>
       </c>
       <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -12081,6 +12635,7 @@
         </is>
       </c>
       <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -12154,6 +12709,11 @@
           <t>NC_000004.12:185504504:G:A</t>
         </is>
       </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>2190387</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -12227,6 +12787,11 @@
           <t>NC_000005.10:228260:G:T</t>
         </is>
       </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>239681</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -12300,6 +12865,11 @@
           <t>NC_000005.10:128278840:T:C</t>
         </is>
       </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>861462</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -12371,6 +12941,11 @@
       <c r="Q175" t="inlineStr">
         <is>
           <t>NC_000005.10:128537532:T:C</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>392694</t>
         </is>
       </c>
     </row>
@@ -12438,6 +13013,7 @@
         </is>
       </c>
       <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -12509,6 +13085,11 @@
       <c r="Q177" t="inlineStr">
         <is>
           <t>NC_000006.12:7571409:A:C</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>628702</t>
         </is>
       </c>
     </row>
@@ -12572,6 +13153,7 @@
         </is>
       </c>
       <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -12643,6 +13225,11 @@
       <c r="Q179" t="inlineStr">
         <is>
           <t>NC_000006.12:7579989:G:A</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>199934</t>
         </is>
       </c>
     </row>
@@ -12706,6 +13293,7 @@
         </is>
       </c>
       <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -12779,6 +13367,11 @@
           <t>NC_000006.12:26090950:C:G</t>
         </is>
       </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -12852,6 +13445,11 @@
           <t>NC_000006.12:26090950:C:G</t>
         </is>
       </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -12925,6 +13523,11 @@
           <t>NC_000006.12:26090956:A:T</t>
         </is>
       </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -12996,6 +13599,11 @@
       <c r="Q184" t="inlineStr">
         <is>
           <t>NC_000006.12:26092912:G:A</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -13059,6 +13667,7 @@
         </is>
       </c>
       <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -13120,6 +13729,7 @@
         </is>
       </c>
       <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -13193,6 +13803,11 @@
           <t>NC_000006.12:112139240:C:T</t>
         </is>
       </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>2151974</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -13266,6 +13881,11 @@
           <t>NC_000006.12:112187463:T:C</t>
         </is>
       </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>518861</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -13339,6 +13959,11 @@
           <t>NC_000006.12:123366151:G:T</t>
         </is>
       </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>841543</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -13410,6 +14035,11 @@
       <c r="Q190" t="inlineStr">
         <is>
           <t>NC_000006.12:123382117:C:A</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>1061565</t>
         </is>
       </c>
     </row>
@@ -13477,6 +14107,7 @@
         </is>
       </c>
       <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -13550,6 +14181,11 @@
           <t>NC_000006.12:123497234:G:A</t>
         </is>
       </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>936559</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -13623,6 +14259,11 @@
           <t>NC_000006.12:123571044:G:A</t>
         </is>
       </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>572082</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -13694,6 +14335,11 @@
       <c r="Q194" t="inlineStr">
         <is>
           <t>NC_000006.12:123571069:C:T</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>355228</t>
         </is>
       </c>
     </row>
@@ -13757,6 +14403,7 @@
         </is>
       </c>
       <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -13818,6 +14465,7 @@
         </is>
       </c>
       <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -13891,6 +14539,11 @@
           <t>NC_000006.12:129315887:G:A</t>
         </is>
       </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>543854</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -13964,6 +14617,11 @@
           <t>NC_000006.12:129349331:G:A</t>
         </is>
       </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>449238</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -14037,6 +14695,11 @@
           <t>NC_000006.12:129349347:C:T</t>
         </is>
       </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>196660</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -14108,6 +14771,11 @@
       <c r="Q200" t="inlineStr">
         <is>
           <t>NC_000006.12:129454179:G:A</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>857582</t>
         </is>
       </c>
     </row>
@@ -14171,6 +14839,7 @@
         </is>
       </c>
       <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -14242,6 +14911,11 @@
       <c r="Q202" t="inlineStr">
         <is>
           <t>NC_000006.12:129460239:T:C</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>945403</t>
         </is>
       </c>
     </row>
@@ -14305,6 +14979,7 @@
         </is>
       </c>
       <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -14378,6 +15053,11 @@
           <t>NC_000006.12:133462425:G:A</t>
         </is>
       </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>228681</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -14449,6 +15129,11 @@
       <c r="Q205" t="inlineStr">
         <is>
           <t>NC_000007.14:74060184:G:A</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>849541</t>
         </is>
       </c>
     </row>
@@ -14512,6 +15197,7 @@
         </is>
       </c>
       <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -14577,6 +15263,7 @@
         </is>
       </c>
       <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -14638,6 +15325,7 @@
         </is>
       </c>
       <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -14699,6 +15387,7 @@
         </is>
       </c>
       <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -14760,6 +15449,7 @@
         </is>
       </c>
       <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -14835,6 +15525,11 @@
       <c r="Q211" t="inlineStr">
         <is>
           <t>NC_000007.14:92040805:AG:CA</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>190484</t>
         </is>
       </c>
     </row>
@@ -14898,6 +15593,7 @@
         </is>
       </c>
       <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -14959,6 +15655,7 @@
         </is>
       </c>
       <c r="Q213" t="inlineStr"/>
+      <c r="R213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -15020,6 +15717,7 @@
         </is>
       </c>
       <c r="Q214" t="inlineStr"/>
+      <c r="R214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -15081,6 +15779,7 @@
         </is>
       </c>
       <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -15142,6 +15841,7 @@
         </is>
       </c>
       <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -15203,6 +15903,7 @@
         </is>
       </c>
       <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -15264,6 +15965,7 @@
         </is>
       </c>
       <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -15325,6 +16027,7 @@
         </is>
       </c>
       <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -15398,6 +16101,11 @@
           <t>NC_000007.14:94425755:C:T</t>
         </is>
       </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>945567</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -15471,6 +16179,11 @@
           <t>NC_000007.14:128838653:G:A</t>
         </is>
       </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>847479</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -15544,6 +16257,11 @@
           <t>NC_000007.14:128840129:G:A</t>
         </is>
       </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>418215</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -15617,6 +16335,11 @@
           <t>NC_000007.14:128841537:G:A</t>
         </is>
       </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>947037</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -15690,6 +16413,11 @@
           <t>NC_000007.14:128846408:C:G</t>
         </is>
       </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>539407</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -15763,6 +16491,11 @@
           <t>NC_000007.14:128846432:A:G</t>
         </is>
       </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>472060</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -15836,6 +16569,11 @@
           <t>NC_000007.14:128847974:A:G</t>
         </is>
       </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>1951239</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -15909,6 +16647,11 @@
           <t>NC_000007.14:128848825:C:T</t>
         </is>
       </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>573552</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -15980,6 +16723,11 @@
       <c r="Q228" t="inlineStr">
         <is>
           <t>NC_000007.14:128851582:G:A</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>539351</t>
         </is>
       </c>
     </row>
@@ -16043,6 +16791,7 @@
         </is>
       </c>
       <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -16114,6 +16863,11 @@
       <c r="Q230" t="inlineStr">
         <is>
           <t>NC_000007.14:128853537:A:C</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>569971</t>
         </is>
       </c>
     </row>
@@ -16177,6 +16931,7 @@
         </is>
       </c>
       <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -16248,6 +17003,11 @@
       <c r="Q232" t="inlineStr">
         <is>
           <t>NC_000007.14:128854083:G:A</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>472138</t>
         </is>
       </c>
     </row>
@@ -16311,6 +17071,7 @@
         </is>
       </c>
       <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -16372,6 +17133,7 @@
         </is>
       </c>
       <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -16433,6 +17195,7 @@
         </is>
       </c>
       <c r="Q235" t="inlineStr"/>
+      <c r="R235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -16494,6 +17257,7 @@
         </is>
       </c>
       <c r="Q236" t="inlineStr"/>
+      <c r="R236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -16565,6 +17329,11 @@
       <c r="Q237" t="inlineStr">
         <is>
           <t>NC_000007.14:140924642:C:G</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>945335</t>
         </is>
       </c>
     </row>
@@ -16628,6 +17397,7 @@
         </is>
       </c>
       <c r="Q238" t="inlineStr"/>
+      <c r="R238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -16701,6 +17471,11 @@
           <t>NC_000007.14:150945396:G:T</t>
         </is>
       </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>456931</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -16774,6 +17549,11 @@
           <t>NC_000007.14:150947639:G:C</t>
         </is>
       </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>919282</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -16847,6 +17627,11 @@
           <t>NC_000007.14:150952423:C:G</t>
         </is>
       </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>439845</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -16918,6 +17703,11 @@
       <c r="Q242" t="inlineStr">
         <is>
           <t>NC_000007.14:150957379:G:A</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>67163</t>
         </is>
       </c>
     </row>
@@ -16981,6 +17771,7 @@
         </is>
       </c>
       <c r="Q243" t="inlineStr"/>
+      <c r="R243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -17042,6 +17833,7 @@
         </is>
       </c>
       <c r="Q244" t="inlineStr"/>
+      <c r="R244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -17103,6 +17895,7 @@
         </is>
       </c>
       <c r="Q245" t="inlineStr"/>
+      <c r="R245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -17176,6 +17969,11 @@
           <t>NC_000007.14:151675438:T:C</t>
         </is>
       </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>533874</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -17247,6 +18045,11 @@
       <c r="Q247" t="inlineStr">
         <is>
           <t>NC_000007.14:151876659:G:A</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>359353</t>
         </is>
       </c>
     </row>
@@ -17310,6 +18113,7 @@
         </is>
       </c>
       <c r="Q248" t="inlineStr"/>
+      <c r="R248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -17371,6 +18175,7 @@
         </is>
       </c>
       <c r="Q249" t="inlineStr"/>
+      <c r="R249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -17442,6 +18247,11 @@
       <c r="Q250" t="inlineStr">
         <is>
           <t>NC_000008.11:19956017:A:G</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>1550</t>
         </is>
       </c>
     </row>
@@ -17509,6 +18319,7 @@
         </is>
       </c>
       <c r="Q251" t="inlineStr"/>
+      <c r="R251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -17570,6 +18381,7 @@
         </is>
       </c>
       <c r="Q252" t="inlineStr"/>
+      <c r="R252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -17641,6 +18453,11 @@
       <c r="Q253" t="inlineStr">
         <is>
           <t>NC_000009.12:105635174:A:G</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>36137</t>
         </is>
       </c>
     </row>
@@ -17704,6 +18521,7 @@
         </is>
       </c>
       <c r="Q254" t="inlineStr"/>
+      <c r="R254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -17765,6 +18583,7 @@
         </is>
       </c>
       <c r="Q255" t="inlineStr"/>
+      <c r="R255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -17826,6 +18645,7 @@
         </is>
       </c>
       <c r="Q256" t="inlineStr"/>
+      <c r="R256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -17897,6 +18717,11 @@
       <c r="Q257" t="inlineStr">
         <is>
           <t>NC_000010.11:18538233:C:T</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>402474</t>
         </is>
       </c>
     </row>
@@ -17960,6 +18785,7 @@
         </is>
       </c>
       <c r="Q258" t="inlineStr"/>
+      <c r="R258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -18021,6 +18847,7 @@
         </is>
       </c>
       <c r="Q259" t="inlineStr"/>
+      <c r="R259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -18094,6 +18921,11 @@
           <t>NC_000010.11:20808664:T:C</t>
         </is>
       </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>840911</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -18167,6 +18999,11 @@
           <t>NC_000010.11:20888198:G:C</t>
         </is>
       </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>178101</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -18238,6 +19075,11 @@
       <c r="Q262" t="inlineStr">
         <is>
           <t>NC_000010.11:20889888:G:T</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>240647</t>
         </is>
       </c>
     </row>
@@ -18301,6 +19143,7 @@
         </is>
       </c>
       <c r="Q263" t="inlineStr"/>
+      <c r="R263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -18362,6 +19205,7 @@
         </is>
       </c>
       <c r="Q264" t="inlineStr"/>
+      <c r="R264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -18423,6 +19267,7 @@
         </is>
       </c>
       <c r="Q265" t="inlineStr"/>
+      <c r="R265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -18496,6 +19341,11 @@
           <t>NC_000010.11:68199416:C:A</t>
         </is>
       </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>191757</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -18569,6 +19419,11 @@
           <t>NC_000010.11:68201988:G:C</t>
         </is>
       </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>1054302</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -18642,6 +19497,11 @@
           <t>NC_000010.11:68210324:G:A</t>
         </is>
       </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>191759</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -18715,6 +19575,11 @@
           <t>NC_000010.11:73998361:G:C</t>
         </is>
       </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>300781</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -18786,6 +19651,11 @@
       <c r="Q270" t="inlineStr">
         <is>
           <t>NC_000010.11:86668781:C:G</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>1043754</t>
         </is>
       </c>
     </row>
@@ -18849,6 +19719,7 @@
         </is>
       </c>
       <c r="Q271" t="inlineStr"/>
+      <c r="R271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -18920,6 +19791,11 @@
       <c r="Q272" t="inlineStr">
         <is>
           <t>NC_000010.11:86716632:C:A</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>1176551</t>
         </is>
       </c>
     </row>
@@ -18983,6 +19859,7 @@
         </is>
       </c>
       <c r="Q273" t="inlineStr"/>
+      <c r="R273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -19044,6 +19921,7 @@
         </is>
       </c>
       <c r="Q274" t="inlineStr"/>
+      <c r="R274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -19115,6 +19993,11 @@
       <c r="Q275" t="inlineStr">
         <is>
           <t>NC_000010.11:99727017:G:A</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>522748</t>
         </is>
       </c>
     </row>
@@ -19178,6 +20061,7 @@
         </is>
       </c>
       <c r="Q276" t="inlineStr"/>
+      <c r="R276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -19239,6 +20123,7 @@
         </is>
       </c>
       <c r="Q277" t="inlineStr"/>
+      <c r="R277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -19310,6 +20195,11 @@
       <c r="Q278" t="inlineStr">
         <is>
           <t>NC_000010.11:110812438:A:G</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>418454</t>
         </is>
       </c>
     </row>
@@ -19373,6 +20263,7 @@
         </is>
       </c>
       <c r="Q279" t="inlineStr"/>
+      <c r="R279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -19434,6 +20325,7 @@
         </is>
       </c>
       <c r="Q280" t="inlineStr"/>
+      <c r="R280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -19495,6 +20387,7 @@
         </is>
       </c>
       <c r="Q281" t="inlineStr"/>
+      <c r="R281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -19568,6 +20461,11 @@
           <t>NC_000010.11:119677000:G:A</t>
         </is>
       </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>515906</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -19641,6 +20539,11 @@
           <t>NC_000010.11:119677277:C:T</t>
         </is>
       </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>1059031</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -19714,6 +20617,11 @@
           <t>NC_000011.10:2572869:G:C</t>
         </is>
       </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>200898</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -19785,6 +20693,11 @@
       <c r="Q285" t="inlineStr">
         <is>
           <t>NC_000011.10:2587629:C:T</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>52970</t>
         </is>
       </c>
     </row>
@@ -19852,6 +20765,7 @@
         </is>
       </c>
       <c r="Q286" t="inlineStr"/>
+      <c r="R286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -19923,6 +20837,11 @@
       <c r="Q287" t="inlineStr">
         <is>
           <t>NC_000011.10:47332974:T:G</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>222710</t>
         </is>
       </c>
     </row>
@@ -19986,6 +20905,7 @@
         </is>
       </c>
       <c r="Q288" t="inlineStr"/>
+      <c r="R288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -20057,6 +20977,11 @@
       <c r="Q289" t="inlineStr">
         <is>
           <t>NC_000011.10:47335995:G:A</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>64615</t>
         </is>
       </c>
     </row>
@@ -20120,6 +21045,7 @@
         </is>
       </c>
       <c r="Q290" t="inlineStr"/>
+      <c r="R290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -20193,6 +21119,11 @@
           <t>NC_000011.10:47342610:C:A</t>
         </is>
       </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>810736</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -20266,6 +21197,11 @@
           <t>NC_000011.10:47342733:C:G</t>
         </is>
       </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>454304</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -20339,6 +21275,11 @@
           <t>NC_000011.10:47342825:T:C</t>
         </is>
       </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>264307</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -20412,6 +21353,11 @@
           <t>NC_000011.10:47348423:C:T</t>
         </is>
       </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>42792</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -20485,6 +21431,11 @@
           <t>NC_000011.10:47348482:C:G</t>
         </is>
       </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>915513</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -20558,6 +21509,11 @@
           <t>NC_000011.10:47350081:G:A</t>
         </is>
       </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>918905</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -20631,6 +21587,11 @@
           <t>NC_000011.10:47350082:T:C</t>
         </is>
       </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>837589</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -20702,6 +21663,11 @@
       <c r="Q298" t="inlineStr">
         <is>
           <t>NC_000011.10:74457537:G:A</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>264211</t>
         </is>
       </c>
     </row>
@@ -20765,6 +21731,7 @@
         </is>
       </c>
       <c r="Q299" t="inlineStr"/>
+      <c r="R299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -20836,6 +21803,11 @@
       <c r="Q300" t="inlineStr">
         <is>
           <t>NC_000011.10:123642495:C:T</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>644208</t>
         </is>
       </c>
     </row>
@@ -20899,6 +21871,7 @@
         </is>
       </c>
       <c r="Q301" t="inlineStr"/>
+      <c r="R301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -20970,6 +21943,11 @@
       <c r="Q302" t="inlineStr">
         <is>
           <t>NC_000012.12:2585431:C:A</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>93397</t>
         </is>
       </c>
     </row>
@@ -21033,6 +22011,7 @@
         </is>
       </c>
       <c r="Q303" t="inlineStr"/>
+      <c r="R303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -21098,6 +22077,7 @@
         </is>
       </c>
       <c r="Q304" t="inlineStr"/>
+      <c r="R304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -21159,6 +22139,7 @@
         </is>
       </c>
       <c r="Q305" t="inlineStr"/>
+      <c r="R305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -21230,6 +22211,11 @@
       <c r="Q306" t="inlineStr">
         <is>
           <t>NC_000012.12:21829032:C:T</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>191584</t>
         </is>
       </c>
     </row>
@@ -21293,6 +22279,7 @@
         </is>
       </c>
       <c r="Q307" t="inlineStr"/>
+      <c r="R307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -21354,6 +22341,7 @@
         </is>
       </c>
       <c r="Q308" t="inlineStr"/>
+      <c r="R308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -21425,6 +22413,11 @@
       <c r="Q309" t="inlineStr">
         <is>
           <t>NC_000012.12:32796133:T:A</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>191763</t>
         </is>
       </c>
     </row>
@@ -21488,6 +22481,7 @@
         </is>
       </c>
       <c r="Q310" t="inlineStr"/>
+      <c r="R310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -21559,6 +22553,11 @@
       <c r="Q311" t="inlineStr">
         <is>
           <t>NC_000013.11:32319087:A:G</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>52467</t>
         </is>
       </c>
     </row>
@@ -21622,6 +22621,7 @@
         </is>
       </c>
       <c r="Q312" t="inlineStr"/>
+      <c r="R312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -21699,6 +22699,11 @@
           <t>NC_000013.11:32339421:AAAAAAA:AAAAAAAAAAAAA</t>
         </is>
       </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>584855</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -21776,6 +22781,11 @@
           <t>NC_000013.11:32339421:AAAAAAA:AAAAAAAAAAAAA</t>
         </is>
       </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>584855</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -21849,6 +22859,11 @@
           <t>NC_000013.11:32340832:C:T</t>
         </is>
       </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>266950</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -21922,6 +22937,11 @@
           <t>NC_000013.11:32363177:G:A</t>
         </is>
       </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>267690</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -21995,6 +23015,11 @@
           <t>NC_000013.11:32363534:T:C</t>
         </is>
       </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>267692</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -22066,6 +23091,11 @@
       <c r="Q318" t="inlineStr">
         <is>
           <t>NC_000013.11:32370547:C:G</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>267090</t>
         </is>
       </c>
     </row>
@@ -22133,6 +23163,7 @@
         </is>
       </c>
       <c r="Q319" t="inlineStr"/>
+      <c r="R319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -22206,6 +23237,11 @@
           <t>NC_000013.11:32379746:C:T</t>
         </is>
       </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>822839</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -22277,6 +23313,11 @@
       <c r="Q321" t="inlineStr">
         <is>
           <t>NC_000014.9:23393436:C:A</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>14151</t>
         </is>
       </c>
     </row>
@@ -22340,6 +23381,7 @@
         </is>
       </c>
       <c r="Q322" t="inlineStr"/>
+      <c r="R322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -22401,6 +23443,7 @@
         </is>
       </c>
       <c r="Q323" t="inlineStr"/>
+      <c r="R323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -22474,6 +23517,11 @@
           <t>NC_000014.9:23415053:C:A</t>
         </is>
       </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>388852</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -22547,6 +23595,11 @@
           <t>NC_000014.9:23415650:C:T</t>
         </is>
       </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>36642</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -22618,6 +23671,11 @@
       <c r="Q326" t="inlineStr">
         <is>
           <t>NC_000014.9:23415650:C:T</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>36642</t>
         </is>
       </c>
     </row>
@@ -22681,6 +23739,7 @@
         </is>
       </c>
       <c r="Q327" t="inlineStr"/>
+      <c r="R327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -22742,6 +23801,7 @@
         </is>
       </c>
       <c r="Q328" t="inlineStr"/>
+      <c r="R328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -22803,6 +23863,7 @@
         </is>
       </c>
       <c r="Q329" t="inlineStr"/>
+      <c r="R329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -22864,6 +23925,7 @@
         </is>
       </c>
       <c r="Q330" t="inlineStr"/>
+      <c r="R330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -22925,6 +23987,7 @@
         </is>
       </c>
       <c r="Q331" t="inlineStr"/>
+      <c r="R331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -22986,6 +24049,7 @@
         </is>
       </c>
       <c r="Q332" t="inlineStr"/>
+      <c r="R332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -23059,6 +24123,11 @@
           <t>NC_000014.9:23417555:G:C</t>
         </is>
       </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>1008293</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -23130,6 +24199,11 @@
       <c r="Q334" t="inlineStr">
         <is>
           <t>NC_000014.9:23417555:G:C</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>1008293</t>
         </is>
       </c>
     </row>
@@ -23193,6 +24267,7 @@
         </is>
       </c>
       <c r="Q335" t="inlineStr"/>
+      <c r="R335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -23254,6 +24329,7 @@
         </is>
       </c>
       <c r="Q336" t="inlineStr"/>
+      <c r="R336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -23327,6 +24403,11 @@
           <t>NC_000014.9:23417617:G:T</t>
         </is>
       </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>454376</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -23400,6 +24481,11 @@
           <t>NC_000014.9:23422290:C:T</t>
         </is>
       </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>651054</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -23473,6 +24559,11 @@
           <t>NC_000014.9:23426850:T:A</t>
         </is>
       </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>418359</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -23546,6 +24637,11 @@
           <t>NC_000014.9:23429806:C:G</t>
         </is>
       </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>164379</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -23619,6 +24715,11 @@
           <t>NC_000014.9:23430582:C:G</t>
         </is>
       </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>43117</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -23692,6 +24793,11 @@
           <t>NC_000014.9:23431601:C:T</t>
         </is>
       </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>43100</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -23765,6 +24871,11 @@
           <t>NC_000014.9:23431606:C:T</t>
         </is>
       </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>43099</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -23838,6 +24949,11 @@
           <t>NC_000014.9:23431788:C:A</t>
         </is>
       </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>177869</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -23909,6 +25025,11 @@
       <c r="Q345" t="inlineStr">
         <is>
           <t>NC_000014.9:23432478:G:A</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>188596</t>
         </is>
       </c>
     </row>
@@ -23972,6 +25093,7 @@
         </is>
       </c>
       <c r="Q346" t="inlineStr"/>
+      <c r="R346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -24043,6 +25165,11 @@
       <c r="Q347" t="inlineStr">
         <is>
           <t>NC_000014.9:74516869:A:T</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>1436694</t>
         </is>
       </c>
     </row>
@@ -24106,6 +25233,7 @@
         </is>
       </c>
       <c r="Q348" t="inlineStr"/>
+      <c r="R348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -24167,6 +25295,7 @@
         </is>
       </c>
       <c r="Q349" t="inlineStr"/>
+      <c r="R349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -24238,6 +25367,11 @@
       <c r="Q350" t="inlineStr">
         <is>
           <t>NC_000014.9:74585883:G:A</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>314316</t>
         </is>
       </c>
     </row>
@@ -24301,6 +25435,7 @@
         </is>
       </c>
       <c r="Q351" t="inlineStr"/>
+      <c r="R351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -24374,6 +25509,11 @@
           <t>NC_000015.10:48415706:C:A</t>
         </is>
       </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>549438</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -24445,6 +25585,11 @@
       <c r="Q353" t="inlineStr">
         <is>
           <t>NC_000015.10:48468467:T:C</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>180355</t>
         </is>
       </c>
     </row>
@@ -24508,6 +25653,7 @@
         </is>
       </c>
       <c r="Q354" t="inlineStr"/>
+      <c r="R354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -24569,6 +25715,7 @@
         </is>
       </c>
       <c r="Q355" t="inlineStr"/>
+      <c r="R355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -24642,6 +25789,11 @@
           <t>NC_000015.10:48526215:C:A</t>
         </is>
       </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>199960</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -24715,6 +25867,11 @@
           <t>NC_000015.10:48596326:C:T</t>
         </is>
       </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>807252</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -24788,6 +25945,11 @@
           <t>NC_000015.10:48600179:C:T</t>
         </is>
       </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>495602</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -24863,6 +26025,11 @@
       <c r="Q359" t="inlineStr">
         <is>
           <t>NC_000015.10:63042841:AAGAAGAAGA:AAGAAGAAGAAGA</t>
+        </is>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>504964</t>
         </is>
       </c>
     </row>
@@ -24926,6 +26093,7 @@
         </is>
       </c>
       <c r="Q360" t="inlineStr"/>
+      <c r="R360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -24987,6 +26155,7 @@
         </is>
       </c>
       <c r="Q361" t="inlineStr"/>
+      <c r="R361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -25048,6 +26217,7 @@
         </is>
       </c>
       <c r="Q362" t="inlineStr"/>
+      <c r="R362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -25109,6 +26279,7 @@
         </is>
       </c>
       <c r="Q363" t="inlineStr"/>
+      <c r="R363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -25170,6 +26341,7 @@
         </is>
       </c>
       <c r="Q364" t="inlineStr"/>
+      <c r="R364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -25231,6 +26403,7 @@
         </is>
       </c>
       <c r="Q365" t="inlineStr"/>
+      <c r="R365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -25292,6 +26465,7 @@
         </is>
       </c>
       <c r="Q366" t="inlineStr"/>
+      <c r="R366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -25365,6 +26539,11 @@
           <t>NC_000016.10:15740154:C:A</t>
         </is>
       </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>201058</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -25436,6 +26615,11 @@
       <c r="Q368" t="inlineStr">
         <is>
           <t>NC_000016.10:15750190:G:A</t>
+        </is>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>161319</t>
         </is>
       </c>
     </row>
@@ -25499,6 +26683,7 @@
         </is>
       </c>
       <c r="Q369" t="inlineStr"/>
+      <c r="R369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -25572,6 +26757,11 @@
           <t>NC_000016.10:56983378:G:C</t>
         </is>
       </c>
+      <c r="R370" t="inlineStr">
+        <is>
+          <t>885657</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -25645,6 +26835,11 @@
           <t>NC_000017.11:39665982:G:C</t>
         </is>
       </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>496212</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -25718,6 +26913,11 @@
           <t>NC_000017.11:41755774:G:A</t>
         </is>
       </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>45847</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -25791,6 +26991,11 @@
           <t>NC_000017.11:41769418:G:A</t>
         </is>
       </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>263731</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -25868,6 +27073,11 @@
           <t>NC_000017.11:43057062:GGG:GGGG</t>
         </is>
       </c>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>17677</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -25941,6 +27151,11 @@
           <t>NC_000017.11:43090980:G:A</t>
         </is>
       </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>418953</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -26012,6 +27227,11 @@
       <c r="Q376" t="inlineStr">
         <is>
           <t>NC_000017.11:43093851:T:A</t>
+        </is>
+      </c>
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>628573</t>
         </is>
       </c>
     </row>
@@ -26079,6 +27299,7 @@
         </is>
       </c>
       <c r="Q377" t="inlineStr"/>
+      <c r="R377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -26152,6 +27373,11 @@
           <t>NC_000017.11:80104541:T:C</t>
         </is>
       </c>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>1025528</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -26223,6 +27449,11 @@
       <c r="Q379" t="inlineStr">
         <is>
           <t>NC_000017.11:80104655:G:A</t>
+        </is>
+      </c>
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>290440</t>
         </is>
       </c>
     </row>
@@ -26286,6 +27517,7 @@
         </is>
       </c>
       <c r="Q380" t="inlineStr"/>
+      <c r="R380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -26359,6 +27591,11 @@
           <t>NC_000017.11:80108304:C:G</t>
         </is>
       </c>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>2064493</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -26432,6 +27669,11 @@
           <t>NC_000017.11:80117684:C:T</t>
         </is>
       </c>
+      <c r="R382" t="inlineStr">
+        <is>
+          <t>252467</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -26509,6 +27751,11 @@
           <t>NC_000018.10:21741527:CGGCGGCAGCGGCGGC:CGGCGGCAGCGGCGGCAGCGGCGGC</t>
         </is>
       </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>517912</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -26580,6 +27827,11 @@
       <c r="Q384" t="inlineStr">
         <is>
           <t>NC_000018.10:21858592:G:T</t>
+        </is>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>40091</t>
         </is>
       </c>
     </row>
@@ -26643,6 +27895,7 @@
         </is>
       </c>
       <c r="Q385" t="inlineStr"/>
+      <c r="R385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -26716,6 +27969,11 @@
           <t>NC_000018.10:31082377:G:A</t>
         </is>
       </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>617896</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -26789,6 +28047,11 @@
           <t>NC_000018.10:31518239:T:C</t>
         </is>
       </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>926324</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -26862,6 +28125,11 @@
           <t>NC_000018.10:31541190:A:G</t>
         </is>
       </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>16817</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -26935,6 +28203,11 @@
           <t>NC_000018.10:31541190:A:G</t>
         </is>
       </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>16817</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -27008,6 +28281,11 @@
           <t>NC_000018.10:31541224:G:A</t>
         </is>
       </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -27079,6 +28357,11 @@
       <c r="Q391" t="inlineStr">
         <is>
           <t>NC_000018.10:31598654:G:A</t>
+        </is>
+      </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>13426</t>
         </is>
       </c>
     </row>
@@ -27142,6 +28425,7 @@
         </is>
       </c>
       <c r="Q392" t="inlineStr"/>
+      <c r="R392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -27207,6 +28491,7 @@
         </is>
       </c>
       <c r="Q393" t="inlineStr"/>
+      <c r="R393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -27268,6 +28553,7 @@
         </is>
       </c>
       <c r="Q394" t="inlineStr"/>
+      <c r="R394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -27329,6 +28615,7 @@
         </is>
       </c>
       <c r="Q395" t="inlineStr"/>
+      <c r="R395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -27390,6 +28677,7 @@
         </is>
       </c>
       <c r="Q396" t="inlineStr"/>
+      <c r="R396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -27451,6 +28739,7 @@
         </is>
       </c>
       <c r="Q397" t="inlineStr"/>
+      <c r="R397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -27512,6 +28801,7 @@
         </is>
       </c>
       <c r="Q398" t="inlineStr"/>
+      <c r="R398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -27573,6 +28863,7 @@
         </is>
       </c>
       <c r="Q399" t="inlineStr"/>
+      <c r="R399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -27634,6 +28925,7 @@
         </is>
       </c>
       <c r="Q400" t="inlineStr"/>
+      <c r="R400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -27695,6 +28987,7 @@
         </is>
       </c>
       <c r="Q401" t="inlineStr"/>
+      <c r="R401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -27756,6 +29049,7 @@
         </is>
       </c>
       <c r="Q402" t="inlineStr"/>
+      <c r="R402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -27817,6 +29111,7 @@
         </is>
       </c>
       <c r="Q403" t="inlineStr"/>
+      <c r="R403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -27878,6 +29173,7 @@
         </is>
       </c>
       <c r="Q404" t="inlineStr"/>
+      <c r="R404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -27939,6 +29235,7 @@
         </is>
       </c>
       <c r="Q405" t="inlineStr"/>
+      <c r="R405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -28000,6 +29297,7 @@
         </is>
       </c>
       <c r="Q406" t="inlineStr"/>
+      <c r="R406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -28061,6 +29359,7 @@
         </is>
       </c>
       <c r="Q407" t="inlineStr"/>
+      <c r="R407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -28132,6 +29431,11 @@
       <c r="Q408" t="inlineStr">
         <is>
           <t>NC_000019.10:38460541:G:A</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>425175</t>
         </is>
       </c>
     </row>
@@ -28195,6 +29499,7 @@
         </is>
       </c>
       <c r="Q409" t="inlineStr"/>
+      <c r="R409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -28256,6 +29561,7 @@
         </is>
       </c>
       <c r="Q410" t="inlineStr"/>
+      <c r="R410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -28317,6 +29623,7 @@
         </is>
       </c>
       <c r="Q411" t="inlineStr"/>
+      <c r="R411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -28388,6 +29695,11 @@
       <c r="Q412" t="inlineStr">
         <is>
           <t>NC_000019.10:38477820:C:T</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>161372</t>
         </is>
       </c>
     </row>
@@ -28451,6 +29763,7 @@
         </is>
       </c>
       <c r="Q413" t="inlineStr"/>
+      <c r="R413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -28512,6 +29825,7 @@
         </is>
       </c>
       <c r="Q414" t="inlineStr"/>
+      <c r="R414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -28573,6 +29887,7 @@
         </is>
       </c>
       <c r="Q415" t="inlineStr"/>
+      <c r="R415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -28644,6 +29959,11 @@
       <c r="Q416" t="inlineStr">
         <is>
           <t>NC_000019.10:38500988:C:T</t>
+        </is>
+      </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>1054894</t>
         </is>
       </c>
     </row>
@@ -28707,6 +30027,7 @@
         </is>
       </c>
       <c r="Q417" t="inlineStr"/>
+      <c r="R417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -28780,6 +30101,11 @@
           <t>NC_000019.10:38525376:G:T</t>
         </is>
       </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>1498791</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -28851,6 +30177,11 @@
       <c r="Q419" t="inlineStr">
         <is>
           <t>NC_000019.10:38566977:A:G</t>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>161366</t>
         </is>
       </c>
     </row>
@@ -28914,6 +30245,7 @@
         </is>
       </c>
       <c r="Q420" t="inlineStr"/>
+      <c r="R420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -28987,6 +30319,11 @@
           <t>NC_000019.10:38586149:C:G</t>
         </is>
       </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>1120218</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -29058,6 +30395,11 @@
       <c r="Q422" t="inlineStr">
         <is>
           <t>NC_000019.10:44908782:C:T</t>
+        </is>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>441264</t>
         </is>
       </c>
     </row>
@@ -29121,6 +30463,7 @@
         </is>
       </c>
       <c r="Q423" t="inlineStr"/>
+      <c r="R423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -29182,6 +30525,7 @@
         </is>
       </c>
       <c r="Q424" t="inlineStr"/>
+      <c r="R424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -29243,6 +30587,7 @@
         </is>
       </c>
       <c r="Q425" t="inlineStr"/>
+      <c r="R425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -29304,6 +30649,7 @@
         </is>
       </c>
       <c r="Q426" t="inlineStr"/>
+      <c r="R426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -29365,6 +30711,7 @@
         </is>
       </c>
       <c r="Q427" t="inlineStr"/>
+      <c r="R427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -29438,6 +30785,11 @@
           <t>NC_000019.10:46755684:G:A</t>
         </is>
       </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -29509,6 +30861,11 @@
       <c r="Q429" t="inlineStr">
         <is>
           <t>NC_000019.10:46755790:C:G</t>
+        </is>
+      </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>96108</t>
         </is>
       </c>
     </row>
@@ -29572,6 +30929,7 @@
         </is>
       </c>
       <c r="Q430" t="inlineStr"/>
+      <c r="R430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -29637,6 +30995,7 @@
         </is>
       </c>
       <c r="Q431" t="inlineStr"/>
+      <c r="R431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -29698,6 +31057,7 @@
         </is>
       </c>
       <c r="Q432" t="inlineStr"/>
+      <c r="R432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -29759,6 +31119,7 @@
         </is>
       </c>
       <c r="Q433" t="inlineStr"/>
+      <c r="R433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -29820,6 +31181,7 @@
         </is>
       </c>
       <c r="Q434" t="inlineStr"/>
+      <c r="R434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -29881,6 +31243,7 @@
         </is>
       </c>
       <c r="Q435" t="inlineStr"/>
+      <c r="R435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -29954,6 +31317,11 @@
           <t>NC_000019.10:55151874:G:C</t>
         </is>
       </c>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>177694</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -30027,6 +31395,11 @@
           <t>NC_000019.10:55151880:C:A</t>
         </is>
       </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>179492</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -30100,6 +31473,11 @@
           <t>NC_000020.11:10672738:G:C</t>
         </is>
       </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>1037966</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -30173,6 +31551,11 @@
           <t>NC_000020.11:31820455:T:A</t>
         </is>
       </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>1183032</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -30244,6 +31627,11 @@
       <c r="Q440" t="inlineStr">
         <is>
           <t>NC_000020.11:33408526:G:A</t>
+        </is>
+      </c>
+      <c r="R440" t="inlineStr">
+        <is>
+          <t>191506</t>
         </is>
       </c>
     </row>
@@ -30311,6 +31699,7 @@
         </is>
       </c>
       <c r="Q441" t="inlineStr"/>
+      <c r="R441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -30382,6 +31771,11 @@
       <c r="Q442" t="inlineStr">
         <is>
           <t>NC_000020.11:33443460:C:G</t>
+        </is>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>190934</t>
         </is>
       </c>
     </row>
@@ -30445,6 +31839,7 @@
         </is>
       </c>
       <c r="Q443" t="inlineStr"/>
+      <c r="R443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -30516,6 +31911,11 @@
       <c r="Q444" t="inlineStr">
         <is>
           <t>NC_000020.11:46709721:C:T</t>
+        </is>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>139185</t>
         </is>
       </c>
     </row>
@@ -30579,6 +31979,7 @@
         </is>
       </c>
       <c r="Q445" t="inlineStr"/>
+      <c r="R445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -30640,6 +32041,7 @@
         </is>
       </c>
       <c r="Q446" t="inlineStr"/>
+      <c r="R446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -30701,6 +32103,7 @@
         </is>
       </c>
       <c r="Q447" t="inlineStr"/>
+      <c r="R447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -30762,6 +32165,7 @@
         </is>
       </c>
       <c r="Q448" t="inlineStr"/>
+      <c r="R448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -30833,6 +32237,11 @@
       <c r="Q449" t="inlineStr">
         <is>
           <t>NC_000021.9:34449381:C:T</t>
+        </is>
+      </c>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t>13479</t>
         </is>
       </c>
     </row>
@@ -30896,6 +32305,7 @@
         </is>
       </c>
       <c r="Q450" t="inlineStr"/>
+      <c r="R450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -30967,6 +32377,11 @@
       <c r="Q451" t="inlineStr">
         <is>
           <t>NC_000021.9:34449540:G:A</t>
+        </is>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>191466</t>
         </is>
       </c>
     </row>
@@ -31030,6 +32445,7 @@
         </is>
       </c>
       <c r="Q452" t="inlineStr"/>
+      <c r="R452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -31091,6 +32507,7 @@
         </is>
       </c>
       <c r="Q453" t="inlineStr"/>
+      <c r="R453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -31162,6 +32579,11 @@
       <c r="Q454" t="inlineStr">
         <is>
           <t>NC_000022.11:19878127:G:C</t>
+        </is>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>644032</t>
         </is>
       </c>
     </row>
@@ -31225,6 +32647,7 @@
         </is>
       </c>
       <c r="Q455" t="inlineStr"/>
+      <c r="R455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -31296,6 +32719,11 @@
       <c r="Q456" t="inlineStr">
         <is>
           <t>NC_000022.11:19919547:G:A</t>
+        </is>
+      </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>967638</t>
         </is>
       </c>
     </row>
@@ -31363,6 +32791,7 @@
         </is>
       </c>
       <c r="Q457" t="inlineStr"/>
+      <c r="R457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -31424,6 +32853,7 @@
         </is>
       </c>
       <c r="Q458" t="inlineStr"/>
+      <c r="R458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -31485,6 +32915,7 @@
         </is>
       </c>
       <c r="Q459" t="inlineStr"/>
+      <c r="R459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -31546,6 +32977,7 @@
         </is>
       </c>
       <c r="Q460" t="inlineStr"/>
+      <c r="R460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -31607,6 +33039,7 @@
         </is>
       </c>
       <c r="Q461" t="inlineStr"/>
+      <c r="R461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -31682,6 +33115,11 @@
       <c r="Q462" t="inlineStr">
         <is>
           <t>NC_000023.11:137566825:CGCCGCCGCCGCCGCCGCCGCCGCCGC:CGCCGCCGCCGCCGCCGCCGC</t>
+        </is>
+      </c>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>664421</t>
         </is>
       </c>
     </row>
@@ -31745,6 +33183,7 @@
         </is>
       </c>
       <c r="Q463" t="inlineStr"/>
+      <c r="R463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -31806,6 +33245,7 @@
         </is>
       </c>
       <c r="Q464" t="inlineStr"/>
+      <c r="R464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -31867,6 +33307,7 @@
         </is>
       </c>
       <c r="Q465" t="inlineStr"/>
+      <c r="R465" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
